--- a/public/excel/finishedTemplate.xlsx
+++ b/public/excel/finishedTemplate.xlsx
@@ -1,104 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39E0929-B4C7-4F4C-8390-6DF9972CB8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="货品" sheetId="1" r:id="rId4"/>
-    <sheet name="数据源" sheetId="2" r:id="rId5"/>
+    <sheet name="货品" sheetId="1" r:id="rId1"/>
+    <sheet name="数据源" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <definedNames>
+    <definedName name="品牌">数据源!$C$2:$C$14</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">条码 *</t>
+      <t>条码 *</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">货品名称 *</t>
+      <t>货品名称 *</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">入网费 *</t>
+      <t>入网费 *</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">零售方式 *</t>
+      <t>零售方式 *</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">标签价 *</t>
+      <t>标签价 *</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">零售工费 *</t>
+      <t>零售工费 *</t>
     </r>
   </si>
   <si>
@@ -107,15 +91,11 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">供应商 *</t>
+      <t>供应商 *</t>
     </r>
   </si>
   <si>
@@ -124,57 +104,41 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">材质(贵金属成分) *</t>
+      <t>材质(贵金属成分) *</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">成色 *</t>
+      <t>成色 *</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">主石(宝玉石种类) *</t>
+      <t>主石(宝玉石种类) *</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">品类 *</t>
+      <t>品类 *</t>
     </r>
   </si>
   <si>
@@ -183,15 +147,11 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <b val="false"/>
-        <i val="false"/>
-        <strike val="false"/>
-        <color rgb="FFFF0000"/>
-        <sz val="11"/>
-        <u val="none"/>
       </rPr>
-      <t xml:space="preserve">金重(g) *</t>
+      <t>金重(g) *</t>
     </r>
   </si>
   <si>
@@ -550,22 +510,39 @@
   </si>
   <si>
     <t>贝母</t>
+  </si>
+  <si>
+    <t>谢瑞麟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -573,28 +550,38 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -884,219 +871,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">条码 *</t>
-          </r>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">货品名称 *</t>
-          </r>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">入网费 *</t>
-          </r>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">零售方式 *</t>
-          </r>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">标签价 *</t>
-          </r>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">零售工费 *</t>
-          </r>
-        </is>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">供应商 *</t>
-          </r>
-        </is>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">材质(贵金属成分) *</t>
-          </r>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">成色 *</t>
-          </r>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">主石(宝玉石种类) *</t>
-          </r>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">品类 *</t>
-          </r>
-        </is>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="false"/>
-              <i val="false"/>
-              <strike val="false"/>
-              <color rgb="FFFF0000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">金重(g) *</t>
-          </r>
-        </is>
+      <c r="O1" t="s">
+        <v>14</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
@@ -1145,70 +973,101 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <dataValidations count="11">
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" sqref="D2:D10000">
-      <formula1>=数据源!$A$2:A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" sqref="H2:H10000">
-      <formula1>=数据源!$B$2:B$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" sqref="I2:I10000">
-      <formula1>=数据源!$C$2:C$13</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" sqref="J2:J10000">
-      <formula1>=数据源!$D$2:D$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" sqref="K2:K10000">
-      <formula1>=数据源!$E$2:E$14</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" sqref="L2:L10000">
-      <formula1>=数据源!$F$2:F$19</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" sqref="M2:M10000">
-      <formula1>=数据源!$G$2:G$16</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" sqref="N2:N10000">
-      <formula1>=数据源!$H$2:H$13</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" sqref="W2:W10000">
-      <formula1>=数据源!$I$2:I$17</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" sqref="X2:X10000">
-      <formula1>=数据源!$J$2:J$15</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="stop" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" sqref="AC2:AC10000">
-      <formula1>=数据源!$K$2:K$3</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>数据源!$A$2:A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D10000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>数据源!$B$2:B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H10000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>数据源!$C$2:C$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>I3:I10000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>数据源!$D$2:D$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J10000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>数据源!$E$2:E$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K10000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>数据源!$F$2:F$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L10000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000006000000}">
+          <x14:formula1>
+            <xm:f>数据源!$G$2:G$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>M2:M10000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000007000000}">
+          <x14:formula1>
+            <xm:f>数据源!$H$2:H$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N10000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000008000000}">
+          <x14:formula1>
+            <xm:f>数据源!$I$2:I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>W2:W10000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000009000000}">
+          <x14:formula1>
+            <xm:f>数据源!$J$2:J$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>X2:X10000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+          <x14:formula1>
+            <xm:f>数据源!$K$2:K$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>AC2:AC10000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{04840D29-1B6A-435C-89DD-9F320BBC076F}">
+          <x14:formula1>
+            <xm:f>数据源!$C$2:C$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>I2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1243,7 +1102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1278,7 +1137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -1313,7 +1172,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1345,7 +1204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>63</v>
       </c>
@@ -1374,7 +1233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>71</v>
       </c>
@@ -1400,7 +1259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>78</v>
       </c>
@@ -1423,7 +1282,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>84</v>
       </c>
@@ -1446,7 +1305,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>90</v>
       </c>
@@ -1469,7 +1328,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>96</v>
       </c>
@@ -1492,7 +1351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>102</v>
       </c>
@@ -1515,7 +1374,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>108</v>
       </c>
@@ -1538,7 +1397,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>114</v>
       </c>
@@ -1561,7 +1420,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="E14" t="s">
         <v>72</v>
       </c>
@@ -1578,7 +1440,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>124</v>
       </c>
@@ -1592,7 +1454,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>128</v>
       </c>
@@ -1603,7 +1465,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>130</v>
       </c>
@@ -1611,28 +1473,19 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>
--- a/public/excel/finishedTemplate.xlsx
+++ b/public/excel/finishedTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39E0929-B4C7-4F4C-8390-6DF9972CB8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8506FF-8D87-44F3-A1A3-A9C2C5DAA8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,27 @@
     <sheet name="数据源" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="品牌">数据源!$C$2:$C$14</definedName>
+    <definedName name="品牌">数据源!$C$2:$C$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="137">
   <si>
     <r>
       <rPr>
@@ -515,12 +528,23 @@
     <t>谢瑞麟</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>梦金园</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金美福</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -544,6 +568,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -565,9 +602,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -872,16 +912,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -971,85 +1014,162 @@
       <c r="AD1" t="s">
         <v>29</v>
       </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{BCD31F1C-249A-44A6-8A02-A679D9801389}">
+      <formula1>品牌</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="12">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>数据源!$A$2:A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D10000</xm:sqref>
+          <xm:sqref>D2:D9975</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>数据源!$B$2:B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H10000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>数据源!$C$2:C$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>I3:I10000</xm:sqref>
+          <xm:sqref>H2:H9975</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>数据源!$D$2:D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J10000</xm:sqref>
+          <xm:sqref>J2:J9975</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>数据源!$E$2:E$14</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K10000</xm:sqref>
+          <xm:sqref>K2:K9975</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>数据源!$F$2:F$19</xm:f>
           </x14:formula1>
-          <xm:sqref>L2:L10000</xm:sqref>
+          <xm:sqref>L2:L9975</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>数据源!$G$2:G$16</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M10000</xm:sqref>
+          <xm:sqref>M2:M9975</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>数据源!$H$2:H$13</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N10000</xm:sqref>
+          <xm:sqref>N2:N9975</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>数据源!$I$2:I$17</xm:f>
           </x14:formula1>
-          <xm:sqref>W2:W10000</xm:sqref>
+          <xm:sqref>W2:W9975</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>数据源!$J$2:J$15</xm:f>
           </x14:formula1>
-          <xm:sqref>X2:X10000</xm:sqref>
+          <xm:sqref>X2:X9975</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>数据源!$K$2:K$3</xm:f>
           </x14:formula1>
-          <xm:sqref>AC2:AC10000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="警告" error="请选择选项" xr:uid="{04840D29-1B6A-435C-89DD-9F320BBC076F}">
-          <x14:formula1>
-            <xm:f>数据源!$C$2:C$14</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2</xm:sqref>
+          <xm:sqref>AC2:AC9975</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1062,7 +1182,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C2:C14"/>
+      <selection activeCell="C2" sqref="C2:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,15 +1222,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
+      <c r="C2" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -1441,6 +1561,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F15" t="s">
         <v>124</v>
       </c>
